--- a/projects/مخزن_المستلزمات_الطبية_Modifications.xlsx
+++ b/projects/مخزن_المستلزمات_الطبية_Modifications.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +533,117 @@
           <t>سبب_التعديل</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>معرف_المعاملة_الأصلية</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>اسم_العنصر</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>التصنيف</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>نوع_العملية</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>تاريخ_المعاملة_الأصلية</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>الكمية_الأصلية</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>فرق_الكمية</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>ملاحظات</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>المستخدم</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-12-07 20:33:47</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>تصحيح خطأ في الإدخال</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2025-12-07 20:33:25_طلاء أبيض_22</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>طلاء أبيض</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>مواد التشطيب</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>دخول</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>45998.85653935185</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>النظام</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
